--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amomin\Documents\GitHub\xlpyFormat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A3AAE1-B117-4558-8DB6-C3F2299961B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4FD936-AFCC-4FBF-A7C8-EBC6BCFE33AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7932" xr2:uid="{59285D8B-CF94-4264-9C42-2B45A8473D7A}"/>
   </bookViews>
@@ -30,20 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>SIM-SIM</t>
-  </si>
-  <si>
-    <t>DEV-COMM</t>
-  </si>
-  <si>
-    <t>ACC-COMM</t>
-  </si>
-  <si>
     <t>BB</t>
   </si>
   <si>
@@ -60,6 +51,26 @@
   </si>
   <si>
     <t>Atif Momin</t>
+  </si>
+  <si>
+    <t>I am typing,oihfsh</t>
+  </si>
+  <si>
+    <t>•	Atif
+•	Atif
+•	ABC</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>BOLD</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
 </sst>
 </file>
@@ -68,8 +79,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_([$$-409]* #,##0.000000_);_([$$-409]* \(#,##0.000000\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.000000_);_([$$-409]* \(#,##0.000000\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -302,7 +313,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -321,20 +332,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -343,6 +342,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -671,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17EE783-2119-4B49-96AA-3D6466FAFEB6}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,187 +716,212 @@
     <col min="5" max="5" width="21.109375" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
-      <c r="C1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6">
-        <v>14657</v>
+        <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>14267</v>
+        <v>1</v>
       </c>
       <c r="D3" s="6">
-        <v>0.97340000000000004</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>13991</v>
+        <v>1</v>
       </c>
       <c r="F3" s="7">
-        <v>0.9546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4" s="8">
-        <v>4205</v>
+        <v>1</v>
       </c>
       <c r="C4" s="8">
-        <v>4046</v>
+        <v>1</v>
       </c>
       <c r="D4" s="8">
-        <v>0.96220000000000006</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="3">
-        <v>4046</v>
+        <v>1</v>
       </c>
       <c r="F4" s="9">
-        <v>0.96220000000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B5" s="10">
-        <v>290</v>
+        <v>999</v>
       </c>
       <c r="C5" s="10">
-        <v>280</v>
+        <v>999</v>
       </c>
       <c r="D5" s="10">
-        <v>0.96550000000000002</v>
+        <v>999</v>
       </c>
       <c r="E5" s="12">
-        <v>158</v>
+        <v>999</v>
       </c>
       <c r="F5" s="13">
-        <v>0.54479999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="14">
-        <v>19152</v>
+        <v>99.99</v>
       </c>
       <c r="C7" s="14">
-        <v>18593</v>
+        <v>99.99</v>
       </c>
       <c r="D7" s="14">
-        <v>0.9708</v>
+        <v>999.99</v>
       </c>
       <c r="E7" s="14">
-        <v>18195</v>
+        <v>999</v>
       </c>
       <c r="F7" s="15">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
-        <v>1</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="24">
-        <v>0.12</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>8</v>
+        <v>99.99</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="H8" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>1</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="20">
+        <v>0.99</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
-        <v>1</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>11</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>4</v>
       </c>
       <c r="E11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E12">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E15">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="48" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
-        <v>9</v>
+    <row r="18" spans="1:5" ht="48" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amomin\Documents\GitHub\xlpyFormat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4FD936-AFCC-4FBF-A7C8-EBC6BCFE33AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0A4526-160E-44BB-975F-7801690047EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7932" xr2:uid="{59285D8B-CF94-4264-9C42-2B45A8473D7A}"/>
   </bookViews>
@@ -313,7 +313,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -376,6 +376,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -706,7 +707,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,8 +841,8 @@
       <c r="C7" s="14">
         <v>99.99</v>
       </c>
-      <c r="D7" s="14">
-        <v>999.99</v>
+      <c r="D7" s="34">
+        <v>99999</v>
       </c>
       <c r="E7" s="14">
         <v>999</v>
